--- a/biology/Médecine/Ercole_Sassonia/Ercole_Sassonia.xlsx
+++ b/biology/Médecine/Ercole_Sassonia/Ercole_Sassonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ercole Sassonia ou Hercules Saxonia et Hercules Saxonia Patauinus
 né à Padoue en 1551 et y décédé le 20 août 1607, est un médecin italien.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut un des grands cliniciens italiens de la Renaissance. Il reçut sa formation dans sa ville natale où il décrocha son diplôme de médecine.
 En 1590, il devint professeur de médecine pratique à l'Université de Padoue.
@@ -545,7 +559,9 @@
           <t>Œuvres  principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Disputatio de phoenigmorum, quae vulgo vesicantia appellantur, &amp; de theriacae usu in febribus pestilentibus. In qua etiam de natura pestis, et pestilentium febrium nonnulla tractantur, Padova, Paulum Meiettum, 1591.
 De Phoenigmis libri tres. In quibus agitur de vniuersa rubificantium natura, deque differentijs omnibus atque vsu. Psilotris, smegmatibus, dropacibus, sinapsismis simplicibus, ac compositis vulgo vesicantibus, de quorum usu in febribus pestilentibus multa disputantur, 1593.
